--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -306,7 +306,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
